--- a/public/model/bondTemplate.xlsx
+++ b/public/model/bondTemplate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YANG-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ccdc\cbpc-frontend\public\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ECF860-8AB8-4A81-9F1F-452D091F7801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A6494-26B4-4D2A-8BCC-982736990A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,28 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>债券简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流通场所（10银行间30上交所40深交所）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16福新02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>136810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +56,33 @@
   </si>
   <si>
     <t>资产根码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64001000000000</t>
+  </si>
+  <si>
+    <t>64002000000000</t>
+  </si>
+  <si>
+    <t>64004000000000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">流通场所
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（64001000000000商业银行柜台市场64002000000000上海自贸区债券市场64003000000000离岸人民币债券市场64004000000000银行间债券市场64005000000000深交所64006000000000上交所）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +100,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -105,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,14 +145,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,61 +456,67 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{2702BB4B-05BB-4A02-961B-AF3E17854829}">
+      <formula1>"64001000000000,64002000000000,64003000000000,64004000000000,64005000000000,64006000000000"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/model/bondTemplate.xlsx
+++ b/public/model/bondTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ccdc\cbpc-frontend\public\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A6494-26B4-4D2A-8BCC-982736990A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA5FC8-5F86-4E95-B612-878E5231A12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产根码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>64001000000000</t>
   </si>
   <si>
@@ -83,6 +79,10 @@
       </rPr>
       <t>（64001000000000商业银行柜台市场64002000000000上海自贸区债券市场64003000000000离岸人民币债券市场64004000000000银行间债券市场64005000000000深交所64006000000000上交所）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -468,13 +468,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/model/bondTemplate.xlsx
+++ b/public/model/bondTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ccdc\cbpc-frontend\public\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA5FC8-5F86-4E95-B612-878E5231A12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4A5C4-8137-4FFB-BA5A-ED12736B3908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>债券简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16福新02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>136710</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,34 +47,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>64001000000000</t>
-  </si>
-  <si>
-    <t>64002000000000</t>
-  </si>
-  <si>
-    <t>64004000000000</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">流通场所
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（64001000000000商业银行柜台市场64002000000000上海自贸区债券市场64003000000000离岸人民币债券市场64004000000000银行间债券市场64005000000000深交所64006000000000上交所）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>债券编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064001000000000</t>
+  </si>
+  <si>
+    <t>*流通场所
+（064001000000000商业银行柜台市场064002000000000上海自贸区债券市场064003000000000离岸人民币债券市场064004000000000银行间债券市场064005000000000深交所064006000000000上交所）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121226.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试债券简称177</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +88,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -456,58 +429,59 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
